--- a/Documents/03_ディレクトリ構成表.xlsx
+++ b/Documents/03_ディレクトリ構成表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>作成日：</t>
     <rPh sb="0" eb="3">
@@ -122,7 +122,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ディレクトリ更生表  OrderSystem/Util</t>
+    <t>Message.phpをModelExcpetion.phpに変更</t>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ディレクトリ構成表  OrderSystem/Util</t>
     <rPh sb="6" eb="8">
       <t>コウセイ</t>
     </rPh>
@@ -132,9 +139,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Message.phpをModelExcpetion.phpに変更</t>
-    <rPh sb="31" eb="33">
-      <t>ヘンコウ</t>
+    <t>OrderSystem/Model, Contoroller, Util, Exception</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -234,6 +245,14 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,14 +266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -280,13 +291,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -335,13 +346,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -390,13 +401,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -445,13 +456,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -493,13 +504,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -541,13 +552,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -589,13 +600,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -644,13 +655,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -699,13 +710,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -715,8 +726,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1714500"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="3553239" y="2435087"/>
+          <a:ext cx="1374913" cy="173935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -754,14 +765,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -770,8 +781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="1885950"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="3553239" y="2782957"/>
+          <a:ext cx="1374913" cy="173935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -809,14 +820,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -825,8 +836,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="2057400"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="3553239" y="3130826"/>
+          <a:ext cx="1374913" cy="173934"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -864,14 +875,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -880,8 +891,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="2228850"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="3553239" y="3304760"/>
+          <a:ext cx="1374913" cy="173935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -919,13 +930,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -935,8 +946,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="2400300"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="3553239" y="3478695"/>
+          <a:ext cx="1374913" cy="173935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,13 +985,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -990,8 +1001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="2743200"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="2162735" y="3866030"/>
+          <a:ext cx="1367118" cy="168088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1029,13 +1040,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1045,8 +1056,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="2914650"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="3529853" y="4034118"/>
+          <a:ext cx="1367118" cy="168088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,7 +1084,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Controller.php</a:t>
+            <a:t>MainController.php</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1084,13 +1095,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1100,8 +1111,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="3257550"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="2162735" y="4538382"/>
+          <a:ext cx="1367118" cy="168089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1139,13 +1150,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1155,8 +1166,63 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3429000" y="3429000"/>
-          <a:ext cx="1371600" cy="171450"/>
+          <a:off x="3529853" y="4706471"/>
+          <a:ext cx="1367118" cy="168088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>top.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3529853" y="4874559"/>
+          <a:ext cx="1367118" cy="168088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,70 +1258,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3600450"/>
-          <a:ext cx="1371600" cy="171450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>confirm.php</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1297,13 +1308,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1344,15 +1355,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86968</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1364,8 +1375,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2700338" y="1243012"/>
-          <a:ext cx="771525" cy="685800"/>
+          <a:off x="2818157" y="2134843"/>
+          <a:ext cx="782708" cy="687456"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1392,15 +1403,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1412,8 +1423,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2614613" y="1328737"/>
-          <a:ext cx="942975" cy="685800"/>
+          <a:off x="2644223" y="2308777"/>
+          <a:ext cx="1130576" cy="687456"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1441,14 +1452,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86966</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1460,8 +1471,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2528888" y="1414462"/>
-          <a:ext cx="1114425" cy="685800"/>
+          <a:off x="2557256" y="2395744"/>
+          <a:ext cx="1304511" cy="687456"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1488,15 +1499,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1508,8 +1519,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2443163" y="1500187"/>
-          <a:ext cx="1285875" cy="685800"/>
+          <a:off x="2470288" y="2482712"/>
+          <a:ext cx="1478446" cy="687456"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1535,16 +1546,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1556,8 +1567,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3043238" y="2614612"/>
-          <a:ext cx="85725" cy="685800"/>
+          <a:off x="3146051" y="3734360"/>
+          <a:ext cx="84044" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1583,16 +1594,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1604,8 +1615,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3043238" y="3128962"/>
-          <a:ext cx="85725" cy="685800"/>
+          <a:off x="3146051" y="4406713"/>
+          <a:ext cx="84044" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1631,16 +1642,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>683558</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1652,8 +1663,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2957513" y="3214687"/>
-          <a:ext cx="257175" cy="685800"/>
+          <a:off x="3062007" y="4490757"/>
+          <a:ext cx="252132" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1681,14 +1692,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>84045</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1700,8 +1711,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="642938" y="1414462"/>
-          <a:ext cx="2143125" cy="685800"/>
+          <a:off x="602316" y="2389655"/>
+          <a:ext cx="2437280" cy="683558"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1728,15 +1739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>2</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1748,8 +1759,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="385763" y="1671637"/>
-          <a:ext cx="2657475" cy="685800"/>
+          <a:off x="266140" y="2725831"/>
+          <a:ext cx="3109633" cy="683558"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1776,15 +1787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1793,7 +1804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050676" y="3866029"/>
+          <a:off x="2162736" y="5531220"/>
           <a:ext cx="1367118" cy="168089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1831,27 +1842,26 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99734</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>84043</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="2"/>
-          <a:endCxn id="35" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="3026147" y="3742206"/>
+          <a:off x="3138207" y="5407397"/>
           <a:ext cx="99734" cy="683558"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
@@ -1878,16 +1888,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15690</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1896,7 +1906,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3417793" y="4049808"/>
+          <a:off x="3529853" y="5714999"/>
           <a:ext cx="1367118" cy="168088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1924,7 +1934,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>Header.php</a:t>
+            <a:t>index.php</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1935,14 +1945,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>168087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>84044</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68352</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1954,8 +1964,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="70037" y="1969434"/>
-          <a:ext cx="3277721" cy="683558"/>
+          <a:off x="-230279" y="3222249"/>
+          <a:ext cx="4102471" cy="683559"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1982,15 +1992,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>99735</xdr:rowOff>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2002,8 +2012,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2942102" y="3658162"/>
-          <a:ext cx="267824" cy="683558"/>
+          <a:off x="3054162" y="5491442"/>
+          <a:ext cx="267823" cy="683558"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2029,16 +2039,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>15690</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>683558</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>15691</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2047,7 +2057,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3417793" y="4049808"/>
+          <a:off x="3529853" y="5883087"/>
           <a:ext cx="1367118" cy="168089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2075,7 +2085,1344 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ModelException.php</a:t>
+            <a:t>PrintNavi.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="2609022"/>
+          <a:ext cx="1374913" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SelectController.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>173933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 51"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="51" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2905125" y="2047875"/>
+          <a:ext cx="608773" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="2956891"/>
+          <a:ext cx="1374913" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>InsertController.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>86968</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="カギ線コネクタ 57"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="57" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2731190" y="2221810"/>
+          <a:ext cx="956642" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>687455</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>687455</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553238" y="3655117"/>
+          <a:ext cx="1374913" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>index.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>687456</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>687454</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89455</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="カギ線コネクタ 72"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="2"/>
+          <a:endCxn id="72" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2382076" y="2570923"/>
+          <a:ext cx="1654868" cy="687455"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="4348369"/>
+          <a:ext cx="1374913" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>index.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="カギ線コネクタ 74"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="74" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3079060" y="3961158"/>
+          <a:ext cx="260902" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="5218044"/>
+          <a:ext cx="1374913" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>conrirm.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="5391979"/>
+          <a:ext cx="1374913" cy="173934"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>index.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>86969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="カギ線コネクタ 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="76" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2992092" y="4743865"/>
+          <a:ext cx="434838" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86968</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="カギ線コネクタ 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="69" idx="2"/>
+          <a:endCxn id="77" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2905125" y="4830832"/>
+          <a:ext cx="608772" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>687455</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105581</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="カギ線コネクタ 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2972017" y="5786012"/>
+          <a:ext cx="474988" cy="687454"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="6255805"/>
+          <a:ext cx="1374913" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PrintErrMsg.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>687455</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="カギ線コネクタ 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2895818" y="5862210"/>
+          <a:ext cx="627386" cy="687455"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="6429740"/>
+          <a:ext cx="1374913" cy="179782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PrintProducts.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="カギ線コネクタ 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="85" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2807389" y="5950639"/>
+          <a:ext cx="804245" cy="687455"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="6609522"/>
+          <a:ext cx="1374913" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SessionRun.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>89890</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="カギ線コネクタ 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="2"/>
+          <a:endCxn id="88" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2718960" y="6039068"/>
+          <a:ext cx="981103" cy="687455"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>5848</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="6783457"/>
+          <a:ext cx="1374913" cy="179782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>SessionStop.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2163536" y="7252607"/>
+          <a:ext cx="1360714" cy="176894"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Util</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>88447</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="カギ線コネクタ 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="91" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="-1051152" y="4126366"/>
+          <a:ext cx="5749018" cy="680357"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>86967</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="94" name="カギ線コネクタ 93"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="2"/>
+          <a:endCxn id="95" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3166028" y="7005017"/>
+          <a:ext cx="86967" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="7305261"/>
+          <a:ext cx="2062370" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>OrderSystemException.php</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>105580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="カギ線コネクタ 96"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3069754" y="7101291"/>
+          <a:ext cx="279515" cy="687456"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553239" y="7479195"/>
+          <a:ext cx="1374913" cy="173935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>index.php</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2372,10 +3719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:N6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2384,72 +3731,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="10">
         <v>42442</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="6"/>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="2"/>
+      <c r="M1" s="6"/>
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
-        <v>42456</v>
+      <c r="I2" s="10">
+        <v>42462</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" s="6"/>
       <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -2463,71 +3810,85 @@
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="2">
         <v>42456</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="C7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
+  <mergeCells count="15">
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="A2:G2"/>
@@ -2535,6 +3896,14 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
